--- a/8/5/2/2/2/Trimestral 2008 a 2021 - Trimestral.xlsx
+++ b/8/5/2/2/2/Trimestral 2008 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Serie</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2591,37 +2594,75 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>126.8</v>
+        <v>126.9</v>
       </c>
       <c r="C54">
         <v>117</v>
       </c>
       <c r="D54">
-        <v>133.1</v>
+        <v>133.2</v>
       </c>
       <c r="E54">
-        <v>114.2</v>
+        <v>113.9</v>
       </c>
       <c r="F54">
-        <v>108.4</v>
+        <v>107.4</v>
       </c>
       <c r="G54">
-        <v>116.7</v>
+        <v>113.4</v>
       </c>
       <c r="H54">
         <v>112.8</v>
       </c>
       <c r="I54">
-        <v>92.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="J54">
-        <v>117.2</v>
+        <v>117</v>
       </c>
       <c r="K54">
         <v>101.5</v>
       </c>
       <c r="L54">
-        <v>115.7</v>
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55">
+        <v>130.2</v>
+      </c>
+      <c r="C55">
+        <v>129.2</v>
+      </c>
+      <c r="D55">
+        <v>129.7</v>
+      </c>
+      <c r="E55">
+        <v>117.5</v>
+      </c>
+      <c r="F55">
+        <v>106.9</v>
+      </c>
+      <c r="G55">
+        <v>107.8</v>
+      </c>
+      <c r="H55">
+        <v>88.5</v>
+      </c>
+      <c r="I55">
+        <v>112.8</v>
+      </c>
+      <c r="J55">
+        <v>122</v>
+      </c>
+      <c r="K55">
+        <v>106.4</v>
+      </c>
+      <c r="L55">
+        <v>119.5</v>
       </c>
     </row>
   </sheetData>
